--- a/doc/配置/level.xlsx
+++ b/doc/配置/level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9435"/>
+    <workbookView windowWidth="20925" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -54,19 +54,7 @@
     <t>地图选择等级上限</t>
   </si>
   <si>
-    <t>迷宫1</t>
-  </si>
-  <si>
-    <t>迷宫2</t>
-  </si>
-  <si>
-    <t>迷宫3</t>
-  </si>
-  <si>
-    <t>迷宫4</t>
-  </si>
-  <si>
-    <t>迷宫5</t>
+    <t>选中者</t>
   </si>
 </sst>
 </file>
@@ -74,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,11 +84,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,6 +113,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -119,14 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -134,6 +135,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -149,9 +151,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +166,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -174,67 +206,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,85 +237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,97 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,21 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,20 +481,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +517,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1039,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1135,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>30</v>
@@ -1152,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>40</v>
@@ -1169,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>50</v>
@@ -1186,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>

--- a/doc/配置/level.xlsx
+++ b/doc/配置/level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9510"/>
+    <workbookView windowWidth="28800" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -85,6 +85,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,7 +107,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,14 +159,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +174,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,83 +227,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,25 +237,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,157 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,9 +433,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,26 +505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,32 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,19 +548,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,112 +569,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
         <v>20</v>
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="D6" s="2">
         <v>30</v>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D7" s="2">
         <v>40</v>
@@ -1177,13 +1177,438 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="D8" s="2">
         <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>600</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>700</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>800</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>900</v>
+      </c>
+      <c r="D12" s="2">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="2">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D16" s="2">
+        <v>130</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D17" s="2">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D19" s="2">
+        <v>160</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1700</v>
+      </c>
+      <c r="D20" s="2">
+        <v>170</v>
+      </c>
+      <c r="E20" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D21" s="2">
+        <v>180</v>
+      </c>
+      <c r="E21" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D22" s="2">
+        <v>190</v>
+      </c>
+      <c r="E22" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>200</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2100</v>
+      </c>
+      <c r="D24" s="2">
+        <v>210</v>
+      </c>
+      <c r="E24" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D25" s="2">
+        <v>220</v>
+      </c>
+      <c r="E25" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2300</v>
+      </c>
+      <c r="D26" s="2">
+        <v>230</v>
+      </c>
+      <c r="E26" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2400</v>
+      </c>
+      <c r="D27" s="2">
+        <v>240</v>
+      </c>
+      <c r="E27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D28" s="2">
+        <v>250</v>
+      </c>
+      <c r="E28" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D29" s="2">
+        <v>260</v>
+      </c>
+      <c r="E29" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D30" s="2">
+        <v>270</v>
+      </c>
+      <c r="E30" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D31" s="2">
+        <v>280</v>
+      </c>
+      <c r="E31" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D32" s="2">
+        <v>290</v>
+      </c>
+      <c r="E32" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="2">
+        <v>300</v>
+      </c>
+      <c r="E33" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/doc/配置/level.xlsx
+++ b/doc/配置/level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11925"/>
+    <workbookView windowWidth="20925" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Map_choose</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -54,7 +57,100 @@
     <t>地图选择等级上限</t>
   </si>
   <si>
+    <t>等级图标</t>
+  </si>
+  <si>
     <t>选中者</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
   </si>
 </sst>
 </file>
@@ -63,9 +159,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -85,9 +181,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,103 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -212,19 +296,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,187 +333,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,41 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,15 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,6 +580,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,137 +644,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +782,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,13 +1135,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
@@ -1050,7 +1149,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,47 +1165,56 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
@@ -1117,13 +1225,16 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>200</v>
@@ -1134,13 +1245,16 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>300</v>
@@ -1151,13 +1265,16 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>400</v>
@@ -1168,13 +1285,16 @@
       <c r="E7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>500</v>
@@ -1185,13 +1305,16 @@
       <c r="E8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>600</v>
@@ -1202,13 +1325,16 @@
       <c r="E9" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <v>700</v>
@@ -1219,13 +1345,16 @@
       <c r="E10" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>800</v>
@@ -1236,13 +1365,16 @@
       <c r="E11" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>900</v>
@@ -1253,13 +1385,16 @@
       <c r="E12" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
@@ -1270,13 +1405,16 @@
       <c r="E13" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>1100</v>
@@ -1287,13 +1425,16 @@
       <c r="E14" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <v>1200</v>
@@ -1304,13 +1445,16 @@
       <c r="E15" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>1300</v>
@@ -1321,13 +1465,16 @@
       <c r="E16" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>1400</v>
@@ -1338,13 +1485,16 @@
       <c r="E17" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>1500</v>
@@ -1355,13 +1505,16 @@
       <c r="E18" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
         <v>1600</v>
@@ -1372,13 +1525,16 @@
       <c r="E19" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <v>1700</v>
@@ -1389,13 +1545,16 @@
       <c r="E20" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
         <v>1800</v>
@@ -1406,13 +1565,16 @@
       <c r="E21" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <v>1900</v>
@@ -1423,13 +1585,16 @@
       <c r="E22" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <v>2000</v>
@@ -1440,13 +1605,16 @@
       <c r="E23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
         <v>2100</v>
@@ -1457,13 +1625,16 @@
       <c r="E24" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
         <v>2200</v>
@@ -1474,13 +1645,16 @@
       <c r="E25" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
         <v>2300</v>
@@ -1491,13 +1665,16 @@
       <c r="E26" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <v>2400</v>
@@ -1508,13 +1685,16 @@
       <c r="E27" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2">
         <v>2500</v>
@@ -1525,13 +1705,16 @@
       <c r="E28" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2">
         <v>2600</v>
@@ -1542,13 +1725,16 @@
       <c r="E29" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <v>2700</v>
@@ -1559,13 +1745,16 @@
       <c r="E30" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2">
         <v>2800</v>
@@ -1576,13 +1765,16 @@
       <c r="E31" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2">
         <v>2900</v>
@@ -1593,13 +1785,16 @@
       <c r="E32" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2">
         <v>3000</v>
@@ -1609,6 +1804,9 @@
       </c>
       <c r="E33" s="2">
         <v>30</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
